--- a/Iskhodnye.xlsx
+++ b/Iskhodnye.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="22" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="ВПО" sheetId="18" r:id="rId20"/>
     <sheet name="Инновации" sheetId="19" r:id="rId21"/>
     <sheet name="Индекс пром. произв" sheetId="21" r:id="rId22"/>
+    <sheet name="Лист1" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -2551,7 +2552,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3515,7 +3516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:G113"/>
     </sheetView>
   </sheetViews>
@@ -47359,7 +47360,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -60676,7 +60677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="M109" sqref="M4:M109"/>
     </sheetView>
   </sheetViews>
@@ -64912,12 +64913,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -66774,7 +66787,7 @@
       <c r="E93" s="32">
         <v>14</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F93" s="32">
         <v>90.3</v>
       </c>
     </row>
@@ -77736,7 +77749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N4" sqref="N4:N105"/>
     </sheetView>
   </sheetViews>
@@ -82159,7 +82172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="M4" sqref="M4:M111"/>
     </sheetView>
   </sheetViews>
@@ -86457,8 +86470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:L109"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
